--- a/medicine/中药数据/龙血竭/龙血竭1.xlsx
+++ b/medicine/中药数据/龙血竭/龙血竭1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarinaJacks\project\reptilian\medicine\龙血竭\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MarinaJacks\project\reptilian\medicine\中药数据\龙血竭\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -2822,8 +2822,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="163.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="130.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.88671875" customWidth="1"/>
+    <col min="2" max="2" width="44.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
